--- a/Data/aearep-639/candidatepackages.xlsx
+++ b/Data/aearep-639/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -58,16 +58,19 @@
     <t>effects</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>try</t>
+  </si>
+  <si>
+    <t>dash</t>
   </si>
   <si>
     <t>switch</t>
-  </si>
-  <si>
-    <t>dash</t>
   </si>
   <si>
     <t>Package popularity (rank out of total # of packages)</t>
@@ -174,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -182,13 +185,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -232,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -244,7 +247,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -256,7 +259,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -268,10 +271,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="C8">
-        <v>0.16677719354629517</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D8"/>
     </row>
@@ -280,10 +283,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C9">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D9"/>
     </row>
@@ -292,10 +295,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C10">
-        <v>0.20092837512493134</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D10"/>
     </row>
@@ -304,10 +307,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C11">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D11"/>
     </row>
@@ -316,10 +319,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C12">
-        <v>0.37566313147544861</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D12"/>
     </row>
@@ -328,10 +331,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C13">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D13"/>
     </row>
@@ -340,10 +343,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C14">
-        <v>0.55039787292480469</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D14"/>
     </row>
@@ -352,10 +355,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1798</v>
+        <v>1658</v>
       </c>
       <c r="C15">
-        <v>0.5961538553237915</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D15"/>
     </row>
@@ -364,10 +367,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1859</v>
+        <v>1880</v>
       </c>
       <c r="C16">
-        <v>0.61637932062149048</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D16"/>
     </row>
@@ -376,10 +379,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2367</v>
+        <v>2057</v>
       </c>
       <c r="C17">
-        <v>0.78481429815292358</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D17"/>
     </row>
@@ -388,12 +391,24 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C18">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2806</v>
+      </c>
+      <c r="C19">
+        <v>0.92760330438613892</v>
+      </c>
+      <c r="D19"/>
     </row>
   </sheetData>
 </worksheet>
@@ -406,130 +421,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
